--- a/Provsvar-fixed.xlsx
+++ b/Provsvar-fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/repo/python/Provsvar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4588D460-21FB-D047-BFCC-4E7B6E1B1FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C3F440-CAF0-DB4F-A5DA-BA66E2A7B577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="37200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="37340" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2553,6 +2553,9 @@
       <c r="W2">
         <v>30</v>
       </c>
+      <c r="AS2">
+        <v>588</v>
+      </c>
       <c r="AT2" t="s">
         <v>171</v>
       </c>
